--- a/SD1 Meeting Log.xlsx
+++ b/SD1 Meeting Log.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Meeting Log:</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Carlos: Add Ideas to repository, create Google Form for voting; Everyone: Vote on google form(s) until we have a final 5</t>
+  </si>
+  <si>
+    <t>Select Project from list of 5, as narrowed down from the google form surveys</t>
   </si>
 </sst>
 </file>
@@ -114,18 +117,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -441,24 +452,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="58.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="61.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="49.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="58.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="61.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -466,7 +477,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -475,13 +486,13 @@
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -495,14 +506,22 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>42761</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/SD1 Meeting Log.xlsx
+++ b/SD1 Meeting Log.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Meeting Log:</t>
   </si>
@@ -59,20 +59,133 @@
     <t>Meeting with Dr. Wei 02/08/17, will meet sometime before then to choose at most 2 ideas to present</t>
   </si>
   <si>
-    <t>Last updated: 01/24/2017 3:58 PM by Carlos</t>
-  </si>
-  <si>
     <t>Carlos: Add Ideas to repository, create Google Form for voting; Everyone: Vote on google form(s) until we have a final 5</t>
   </si>
   <si>
     <t>Select Project from list of 5, as narrowed down from the google form surveys</t>
+  </si>
+  <si>
+    <t>Chose to turn in Fire Alarm and Teaching Assistant for Divide and Conquer - Initial Document due 2/3</t>
+  </si>
+  <si>
+    <t>We decided to Use Fire Alarm and Teaching Assistant; See Deadlines spreadsheet for details;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Please complete the following by 2/1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Carlos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Project Milestones; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Courtnie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: House of Quality, Engineering Specifications; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lucas:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> budget and financing, goals and objectives;  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Patrick:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Project Block Diagram, Decision Matrix;</t>
+    </r>
+  </si>
+  <si>
+    <t>Last updated: 01/26/2017 8:35 PM by Carlos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +204,14 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -455,7 +576,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -510,18 +631,30 @@
         <v>9</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>42761</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>13</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/SD1 Meeting Log.xlsx
+++ b/SD1 Meeting Log.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Meeting Log:</t>
   </si>
@@ -59,17 +59,133 @@
     <t>Meeting with Dr. Wei 02/08/17, will meet sometime before then to choose at most 2 ideas to present</t>
   </si>
   <si>
-    <t>Last updated: 01/24/2017 3:58 PM by Carlos</t>
-  </si>
-  <si>
     <t>Carlos: Add Ideas to repository, create Google Form for voting; Everyone: Vote on google form(s) until we have a final 5</t>
+  </si>
+  <si>
+    <t>Select Project from list of 5, as narrowed down from the google form surveys</t>
+  </si>
+  <si>
+    <t>Chose to turn in Fire Alarm and Teaching Assistant for Divide and Conquer - Initial Document due 2/3</t>
+  </si>
+  <si>
+    <t>We decided to Use Fire Alarm and Teaching Assistant; See Deadlines spreadsheet for details;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Please complete the following by 2/1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Carlos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Project Milestones; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Courtnie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: House of Quality, Engineering Specifications; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lucas:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> budget and financing, goals and objectives;  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Patrick:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Project Block Diagram, Decision Matrix;</t>
+    </r>
+  </si>
+  <si>
+    <t>Last updated: 01/26/2017 8:35 PM by Carlos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +204,14 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -114,18 +238,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -441,32 +573,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="58.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="61.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="49.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="58.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="61.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -475,13 +607,13 @@
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -495,14 +627,34 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>42761</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>10</v>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/SD1 Meeting Log.xlsx
+++ b/SD1 Meeting Log.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Meeting Log:</t>
   </si>
@@ -178,14 +178,248 @@
     </r>
   </si>
   <si>
-    <t>Last updated: 01/26/2017 8:35 PM by Carlos</t>
+    <t>Meet with Lei Wei, choose project, Assign research</t>
+  </si>
+  <si>
+    <t>Chose Fire Alarm Project. See "Actions Required" for Research.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Please complete the following by 2/5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Carlos:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Update Project Milestones; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Courtnie: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Update House of Quality; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lucas:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> goals and objectives;  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Patrick:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Project Block Diagram; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Complete by 2/22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Carlos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Smoke Sensors Research &amp; Docs; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Courtnie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Battery Research &amp; Docs; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lucas:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Microcontroller Research &amp; Docs; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Patrick</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Wireless Communication Research &amp; Docs;</t>
+    </r>
+  </si>
+  <si>
+    <t>Meeting Weekly on Wednesdays from now on</t>
+  </si>
+  <si>
+    <t>Last updated: 02/09/2017 8:35 PM by Carlos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +444,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -573,7 +816,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -594,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -655,6 +898,26 @@
       </c>
       <c r="F5" s="3" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>42774</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/SD1 Meeting Log.xlsx
+++ b/SD1 Meeting Log.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Meeting Log:</t>
   </si>
@@ -184,6 +184,15 @@
     <t>Chose Fire Alarm Project. See "Actions Required" for Research.</t>
   </si>
   <si>
+    <t>Meeting Weekly on Wednesdays from now on</t>
+  </si>
+  <si>
+    <t>Discuss Updates for Initial Document/Proposal. Make sure everyone has Research Assigned, and Understands what is Required.</t>
+  </si>
+  <si>
+    <t>Assigned Research for everyone. Will submit "Updates" documented by 2/16.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -194,7 +203,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Please complete the following by 2/5</t>
+      <t>Please complete the following by 2/15</t>
     </r>
     <r>
       <rPr>
@@ -409,10 +418,108 @@
     </r>
   </si>
   <si>
-    <t>Meeting Weekly on Wednesdays from now on</t>
-  </si>
-  <si>
-    <t>Last updated: 02/09/2017 8:35 PM by Carlos</t>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Please complete Research on at least one of the following by 2/22</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Carlos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Smoke Sensors, Direction/Location Algorithm Research &amp; Docs; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Courtnie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Battery/Power Monitoring, Alarm System Components Research &amp; Docs; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lucas:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Microcontroller and Processor Research &amp; Docs; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Patrick</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Wireless Communication Research and Processor &amp; Docs;</t>
+    </r>
+  </si>
+  <si>
+    <t>Will look into sponsors later on in project. Add Software Flowchart to document whenever possible.</t>
+  </si>
+  <si>
+    <t>Last updated: 02/15/2017 12:28 PM by Carlos</t>
   </si>
 </sst>
 </file>
@@ -816,7 +923,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -837,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -914,10 +1021,30 @@
         <v>17</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="3" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>42781</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/SD1 Meeting Log.xlsx
+++ b/SD1 Meeting Log.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Meeting Log:</t>
   </si>
@@ -178,14 +178,355 @@
     </r>
   </si>
   <si>
-    <t>Last updated: 01/26/2017 8:35 PM by Carlos</t>
+    <t>Meet with Lei Wei, choose project, Assign research</t>
+  </si>
+  <si>
+    <t>Chose Fire Alarm Project. See "Actions Required" for Research.</t>
+  </si>
+  <si>
+    <t>Meeting Weekly on Wednesdays from now on</t>
+  </si>
+  <si>
+    <t>Discuss Updates for Initial Document/Proposal. Make sure everyone has Research Assigned, and Understands what is Required.</t>
+  </si>
+  <si>
+    <t>Assigned Research for everyone. Will submit "Updates" documented by 2/16.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Please complete the following by 2/15</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Carlos:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Update Project Milestones; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Courtnie: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Update House of Quality; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lucas:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> goals and objectives;  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Patrick:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Project Block Diagram; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Complete by 2/22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Carlos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Smoke Sensors Research &amp; Docs; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Courtnie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Battery Research &amp; Docs; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lucas:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Microcontroller Research &amp; Docs; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Patrick</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Wireless Communication Research &amp; Docs;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Please complete Research on at least one of the following by 2/22</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Carlos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Smoke Sensors, Direction/Location Algorithm Research &amp; Docs; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Courtnie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Battery/Power Monitoring, Alarm System Components Research &amp; Docs; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lucas:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Microcontroller and Processor Research &amp; Docs; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Patrick</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Wireless Communication Research and Processor &amp; Docs;</t>
+    </r>
+  </si>
+  <si>
+    <t>Will look into sponsors later on in project. Add Software Flowchart to document whenever possible.</t>
+  </si>
+  <si>
+    <t>Last updated: 02/15/2017 12:28 PM by Carlos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +551,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -573,7 +923,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -594,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -655,6 +1005,46 @@
       </c>
       <c r="F5" s="3" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>42774</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>42781</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/SD1 Meeting Log.xlsx
+++ b/SD1 Meeting Log.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Meeting Log:</t>
   </si>
@@ -520,6 +520,110 @@
   </si>
   <si>
     <t>Last updated: 02/15/2017 12:28 PM by Carlos</t>
+  </si>
+  <si>
+    <t>Find out where we are on Research Discuss buying parts to begin prototyping Begin creating designs of circuits and software</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Please complete Research on at least one of the following by 3/1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Carlos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Smoke chamber, Direction/Location Algorithm Research &amp; Docs, photoelectric sensor schematic; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Courtnie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Battery/Power Monitoring, Alarm System Components Research, Docs and Schematics; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Lucas: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Processor Research &amp; Docs; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Patrick</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Wireless Communication Research and Processor, Docs, and schematic;</t>
+    </r>
+  </si>
+  <si>
+    <t>Assigned Research and developent of schematics, will buy parts next week, requirements and specifications for software by next week</t>
   </si>
 </sst>
 </file>
@@ -923,10 +1027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,6 +1151,23 @@
         <v>23</v>
       </c>
     </row>
+    <row r="8" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>42795</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
